--- a/user-data/income-share-bottom-20pc/income-share-bottom-20pc.xlsx
+++ b/user-data/income-share-bottom-20pc/income-share-bottom-20pc.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t>id</t>
   </si>
@@ -1309,9 +1309,6 @@
   </si>
   <si>
     <t>Source: World Bank World Development Indicators</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1693,22 +1690,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11">
@@ -1724,11 +1721,6 @@
     <row r="13">
       <c r="A13" t="s">
         <v>437</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>438</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/income-share-bottom-20pc/income-share-bottom-20pc.xlsx
+++ b/user-data/income-share-bottom-20pc/income-share-bottom-20pc.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="439">
   <si>
     <t>id</t>
   </si>
@@ -1320,7 +1320,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1723,6 +1726,11 @@
         <v>437</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>438</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/income-share-bottom-20pc/income-share-bottom-20pc.xlsx
+++ b/user-data/income-share-bottom-20pc/income-share-bottom-20pc.xlsx
@@ -66,7 +66,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -174,7 +174,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -213,88 +213,88 @@
     <t>Burundi</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
-  </si>
-  <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>HR</t>
@@ -312,7 +312,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -990,7 +990,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1008,7 +1008,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1182,7 +1182,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1206,7 +1206,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1227,18 +1227,18 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
     <t>UY</t>
   </si>
   <si>
@@ -1329,7 +1329,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -4849,7 +4849,9 @@
       <c r="C252" t="n">
         <v>2007</v>
       </c>
-      <c r="D252"/>
+      <c r="D252" t="n">
+        <v>6.57</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
@@ -4862,7 +4864,7 @@
         <v>2008</v>
       </c>
       <c r="D253" t="n">
-        <v>5.6</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="254">
@@ -4875,7 +4877,9 @@
       <c r="C254" t="n">
         <v>2009</v>
       </c>
-      <c r="D254"/>
+      <c r="D254" t="n">
+        <v>7.93</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
@@ -4948,7 +4952,7 @@
         <v>2007</v>
       </c>
       <c r="D260" t="n">
-        <v>6.57</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="261">
@@ -4961,9 +4965,7 @@
       <c r="C261" t="n">
         <v>2008</v>
       </c>
-      <c r="D261" t="n">
-        <v>7.54</v>
-      </c>
+      <c r="D261"/>
     </row>
     <row r="262">
       <c r="A262" t="s">
@@ -4975,9 +4977,7 @@
       <c r="C262" t="n">
         <v>2009</v>
       </c>
-      <c r="D262" t="n">
-        <v>7.93</v>
-      </c>
+      <c r="D262"/>
     </row>
     <row r="263">
       <c r="A263" t="s">
@@ -5049,9 +5049,7 @@
       <c r="C268" t="n">
         <v>2007</v>
       </c>
-      <c r="D268" t="n">
-        <v>6.73</v>
-      </c>
+      <c r="D268"/>
     </row>
     <row r="269">
       <c r="A269" t="s">
@@ -5255,7 +5253,9 @@
       <c r="C285" t="n">
         <v>2008</v>
       </c>
-      <c r="D285"/>
+      <c r="D285" t="n">
+        <v>3.37</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
@@ -5351,9 +5351,7 @@
       <c r="C293" t="n">
         <v>2008</v>
       </c>
-      <c r="D293" t="n">
-        <v>3.37</v>
-      </c>
+      <c r="D293"/>
     </row>
     <row r="294">
       <c r="A294" t="s">
@@ -5521,7 +5519,9 @@
       <c r="C307" t="n">
         <v>2006</v>
       </c>
-      <c r="D307"/>
+      <c r="D307" t="n">
+        <v>4.22</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
@@ -5557,7 +5557,9 @@
       <c r="C310" t="n">
         <v>2009</v>
       </c>
-      <c r="D310"/>
+      <c r="D310" t="n">
+        <v>4.26</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
@@ -5605,7 +5607,9 @@
       <c r="C314" t="n">
         <v>2005</v>
       </c>
-      <c r="D314"/>
+      <c r="D314" t="n">
+        <v>4.99</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
@@ -5617,9 +5621,7 @@
       <c r="C315" t="n">
         <v>2006</v>
       </c>
-      <c r="D315" t="n">
-        <v>4.22</v>
-      </c>
+      <c r="D315"/>
     </row>
     <row r="316">
       <c r="A316" t="s">
@@ -5643,7 +5645,9 @@
       <c r="C317" t="n">
         <v>2008</v>
       </c>
-      <c r="D317"/>
+      <c r="D317" t="n">
+        <v>4.78</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
@@ -5656,7 +5660,7 @@
         <v>2009</v>
       </c>
       <c r="D318" t="n">
-        <v>4.26</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="319">
@@ -5706,7 +5710,7 @@
         <v>2005</v>
       </c>
       <c r="D322" t="n">
-        <v>4.99</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="323">
@@ -5719,7 +5723,9 @@
       <c r="C323" t="n">
         <v>2006</v>
       </c>
-      <c r="D323"/>
+      <c r="D323" t="n">
+        <v>2.51</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
@@ -5731,7 +5737,9 @@
       <c r="C324" t="n">
         <v>2007</v>
       </c>
-      <c r="D324"/>
+      <c r="D324" t="n">
+        <v>2.68</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
@@ -5744,7 +5752,7 @@
         <v>2008</v>
       </c>
       <c r="D325" t="n">
-        <v>4.78</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="326">
@@ -5758,7 +5766,7 @@
         <v>2009</v>
       </c>
       <c r="D326" t="n">
-        <v>4.67</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="327">
@@ -5771,7 +5779,9 @@
       <c r="C327" t="n">
         <v>2010</v>
       </c>
-      <c r="D327"/>
+      <c r="D327" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
@@ -5807,9 +5817,7 @@
       <c r="C330" t="n">
         <v>2005</v>
       </c>
-      <c r="D330" t="n">
-        <v>2.79</v>
-      </c>
+      <c r="D330"/>
     </row>
     <row r="331">
       <c r="A331" t="s">
@@ -5821,9 +5829,7 @@
       <c r="C331" t="n">
         <v>2006</v>
       </c>
-      <c r="D331" t="n">
-        <v>2.51</v>
-      </c>
+      <c r="D331"/>
     </row>
     <row r="332">
       <c r="A332" t="s">
@@ -5835,9 +5841,7 @@
       <c r="C332" t="n">
         <v>2007</v>
       </c>
-      <c r="D332" t="n">
-        <v>2.68</v>
-      </c>
+      <c r="D332"/>
     </row>
     <row r="333">
       <c r="A333" t="s">
@@ -5849,9 +5853,7 @@
       <c r="C333" t="n">
         <v>2008</v>
       </c>
-      <c r="D333" t="n">
-        <v>2.52</v>
-      </c>
+      <c r="D333"/>
     </row>
     <row r="334">
       <c r="A334" t="s">
@@ -5863,9 +5865,7 @@
       <c r="C334" t="n">
         <v>2009</v>
       </c>
-      <c r="D334" t="n">
-        <v>2.73</v>
-      </c>
+      <c r="D334"/>
     </row>
     <row r="335">
       <c r="A335" t="s">
@@ -5877,9 +5877,7 @@
       <c r="C335" t="n">
         <v>2010</v>
       </c>
-      <c r="D335" t="n">
-        <v>3</v>
-      </c>
+      <c r="D335"/>
     </row>
     <row r="336">
       <c r="A336" t="s">
@@ -5915,7 +5913,9 @@
       <c r="C338" t="n">
         <v>2005</v>
       </c>
-      <c r="D338"/>
+      <c r="D338" t="n">
+        <v>4.96</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
@@ -6012,7 +6012,7 @@
         <v>2005</v>
       </c>
       <c r="D346" t="n">
-        <v>4.96</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="347">
@@ -6025,7 +6025,9 @@
       <c r="C347" t="n">
         <v>2006</v>
       </c>
-      <c r="D347"/>
+      <c r="D347" t="n">
+        <v>3.99</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="s">
@@ -6037,7 +6039,9 @@
       <c r="C348" t="n">
         <v>2007</v>
       </c>
-      <c r="D348"/>
+      <c r="D348" t="n">
+        <v>4.27</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="s">
@@ -6049,7 +6053,9 @@
       <c r="C349" t="n">
         <v>2008</v>
       </c>
-      <c r="D349"/>
+      <c r="D349" t="n">
+        <v>4.27</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="s">
@@ -6061,7 +6067,9 @@
       <c r="C350" t="n">
         <v>2009</v>
       </c>
-      <c r="D350"/>
+      <c r="D350" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="s">
@@ -6109,9 +6117,7 @@
       <c r="C354" t="n">
         <v>2005</v>
       </c>
-      <c r="D354" t="n">
-        <v>4.1</v>
-      </c>
+      <c r="D354"/>
     </row>
     <row r="355">
       <c r="A355" t="s">
@@ -6123,9 +6129,7 @@
       <c r="C355" t="n">
         <v>2006</v>
       </c>
-      <c r="D355" t="n">
-        <v>3.99</v>
-      </c>
+      <c r="D355"/>
     </row>
     <row r="356">
       <c r="A356" t="s">
@@ -6137,9 +6141,7 @@
       <c r="C356" t="n">
         <v>2007</v>
       </c>
-      <c r="D356" t="n">
-        <v>4.27</v>
-      </c>
+      <c r="D356"/>
     </row>
     <row r="357">
       <c r="A357" t="s">
@@ -6152,7 +6154,7 @@
         <v>2008</v>
       </c>
       <c r="D357" t="n">
-        <v>4.27</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="358">
@@ -6165,9 +6167,7 @@
       <c r="C358" t="n">
         <v>2009</v>
       </c>
-      <c r="D358" t="n">
-        <v>3.85</v>
-      </c>
+      <c r="D358"/>
     </row>
     <row r="359">
       <c r="A359" t="s">
@@ -21477,9 +21477,7 @@
       <c r="C1602" t="n">
         <v>2005</v>
       </c>
-      <c r="D1602" t="n">
-        <v>9.02</v>
-      </c>
+      <c r="D1602"/>
     </row>
     <row r="1603">
       <c r="A1603" t="s">
@@ -21491,9 +21489,7 @@
       <c r="C1603" t="n">
         <v>2006</v>
       </c>
-      <c r="D1603" t="n">
-        <v>8.7</v>
-      </c>
+      <c r="D1603"/>
     </row>
     <row r="1604">
       <c r="A1604" t="s">
@@ -21505,9 +21501,7 @@
       <c r="C1604" t="n">
         <v>2007</v>
       </c>
-      <c r="D1604" t="n">
-        <v>8.77</v>
-      </c>
+      <c r="D1604"/>
     </row>
     <row r="1605">
       <c r="A1605" t="s">
@@ -21519,9 +21513,7 @@
       <c r="C1605" t="n">
         <v>2008</v>
       </c>
-      <c r="D1605" t="n">
-        <v>9.36</v>
-      </c>
+      <c r="D1605"/>
     </row>
     <row r="1606">
       <c r="A1606" t="s">
@@ -21533,9 +21525,7 @@
       <c r="C1606" t="n">
         <v>2009</v>
       </c>
-      <c r="D1606" t="n">
-        <v>9.67</v>
-      </c>
+      <c r="D1606"/>
     </row>
     <row r="1607">
       <c r="A1607" t="s">
@@ -21547,9 +21537,7 @@
       <c r="C1607" t="n">
         <v>2010</v>
       </c>
-      <c r="D1607" t="n">
-        <v>9.93</v>
-      </c>
+      <c r="D1607"/>
     </row>
     <row r="1608">
       <c r="A1608" t="s">
@@ -21585,7 +21573,9 @@
       <c r="C1610" t="n">
         <v>2005</v>
       </c>
-      <c r="D1610"/>
+      <c r="D1610" t="n">
+        <v>9.02</v>
+      </c>
     </row>
     <row r="1611">
       <c r="A1611" t="s">
@@ -21597,7 +21587,9 @@
       <c r="C1611" t="n">
         <v>2006</v>
       </c>
-      <c r="D1611"/>
+      <c r="D1611" t="n">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="1612">
       <c r="A1612" t="s">
@@ -21609,7 +21601,9 @@
       <c r="C1612" t="n">
         <v>2007</v>
       </c>
-      <c r="D1612"/>
+      <c r="D1612" t="n">
+        <v>8.77</v>
+      </c>
     </row>
     <row r="1613">
       <c r="A1613" t="s">
@@ -21621,7 +21615,9 @@
       <c r="C1613" t="n">
         <v>2008</v>
       </c>
-      <c r="D1613"/>
+      <c r="D1613" t="n">
+        <v>9.36</v>
+      </c>
     </row>
     <row r="1614">
       <c r="A1614" t="s">
@@ -21633,7 +21629,9 @@
       <c r="C1614" t="n">
         <v>2009</v>
       </c>
-      <c r="D1614"/>
+      <c r="D1614" t="n">
+        <v>9.67</v>
+      </c>
     </row>
     <row r="1615">
       <c r="A1615" t="s">
@@ -21645,7 +21643,9 @@
       <c r="C1615" t="n">
         <v>2010</v>
       </c>
-      <c r="D1615"/>
+      <c r="D1615" t="n">
+        <v>9.93</v>
+      </c>
     </row>
     <row r="1616">
       <c r="A1616" t="s">
